--- a/biology/Médecine/Rameau_superficiel_de_l'artère_circonflexe_fémorale_médiale/Rameau_superficiel_de_l'artère_circonflexe_fémorale_médiale.xlsx
+++ b/biology/Médecine/Rameau_superficiel_de_l'artère_circonflexe_fémorale_médiale/Rameau_superficiel_de_l'artère_circonflexe_fémorale_médiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_superficiel_de_l%27art%C3%A8re_circonflexe_f%C3%A9morale_m%C3%A9diale</t>
+          <t>Rameau_superficiel_de_l'artère_circonflexe_fémorale_médiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau superficiel de l'artère fémorale circonflexe médiale est une artère du membre inférieur située dans la cuisse.
 La rameau superficiel de l'artère circonflexe fémorale médiale naît du rameau descendant de l'artère circonflexe fémorale médiale. Il nait entre le muscle carré fémoral et le bord supérieur du muscle grand adducteur.
